--- a/Project/Testing/Wrong_Data_Type.xlsx
+++ b/Project/Testing/Wrong_Data_Type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DillonBritt\source\repos\SpreadSheet_To_DataBase\Project\Project\Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE0BD60-0693-4960-B730-E4B9210B27C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E356BDED-936E-473E-9C3A-52D8928AF03F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11835" xr2:uid="{A81CADFB-7C65-4AC7-B273-299627088B86}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11835" xr2:uid="{A81CADFB-7C65-4AC7-B273-299627088B86}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>Hello</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <dimension ref="A1:H10513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +477,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
